--- a/stock_historical_data/1wk/MERCTRD.BO.xlsx
+++ b/stock_historical_data/1wk/MERCTRD.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -910,12 +936,15 @@
         <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -968,6 +997,468 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.32999992370605</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>131121</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B12" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.1200008392334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.88999938964844</v>
+      </c>
+      <c r="F12" t="n">
+        <v>37960</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F13" t="n">
+        <v>665136</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="F14" t="n">
+        <v>125443</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.42000007629395</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.42000007629395</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.15999984741211</v>
+      </c>
+      <c r="F15" t="n">
+        <v>330455</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18.20999908447266</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="F16" t="n">
+        <v>298611</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F17" t="n">
+        <v>195122</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="C18" t="n">
+        <v>21.84000015258789</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21.82999992370605</v>
+      </c>
+      <c r="F18" t="n">
+        <v>98763</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22.26000022888184</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="E19" t="n">
+        <v>21.76000022888184</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60914</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>28</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
